--- a/Time_to_Boil/Time_To_Boil.xlsx
+++ b/Time_to_Boil/Time_To_Boil.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9308804-733D-49F2-99D0-5820474EFCE2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{71CD1384-BAB7-4AA4-AD1D-30BA92070C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB9D9EB-F0E9-4192-B19C-D688273B5EDA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="315" windowWidth="10740" windowHeight="11295" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
+    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{BA671641-B249-4E51-A874-A982773D94FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Q_toBoil">Sheet1!$B$3</definedName>
     <definedName name="T_boil">Sheet1!$B$4</definedName>
+    <definedName name="Watts">Sheet1!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,9 +52,6 @@
     <t>J/s</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -60,6 +59,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Q_toBoil</t>
   </si>
 </sst>
 </file>
@@ -162,6 +164,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,25 +513,25 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>292880</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <f>B3/B2</f>
         <v>292.88</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
